--- a/HPAI_QRA_raw_model.xlsx
+++ b/HPAI_QRA_raw_model.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18479\Desktop\Research\Ivanek\HPAI Dairy QRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA87DCC-987C-4DA7-A173-59E7CEB81979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1944B5D9-970D-4A02-A29C-DD5CA4C6AFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6885" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4540" yWindow="980" windowWidth="14730" windowHeight="9010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RiskSerializationData8" sheetId="128" state="hidden" r:id="rId1"/>
+    <sheet name="RiskSerializationData8" sheetId="141" state="hidden" r:id="rId1"/>
     <sheet name="model" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -44,8 +44,8 @@
     <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">1</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">1</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
-    <definedName name="BrowseRecords" localSheetId="0">RiskSerializationData8!$6:$10</definedName>
-    <definedName name="DistributionRecords" localSheetId="0">RiskSerializationData8!$13:$13</definedName>
+    <definedName name="BrowseRecords" localSheetId="0">RiskSerializationData8!$6:$11</definedName>
+    <definedName name="DistributionRecords" localSheetId="0">RiskSerializationData8!$14:$14</definedName>
     <definedName name="Pal_Workbook_GUID">"ISWQS445SAPG7IXRG6ZRFRXE"</definedName>
     <definedName name="RiskAfterRecalcMacro" hidden="1">""</definedName>
     <definedName name="RiskAfterSimMacro" hidden="1">""</definedName>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="219">
   <si>
     <t>Written By Version</t>
   </si>
@@ -433,9 +433,6 @@
     <t>GF1_rK0qDwEAEwAWAQwjACcAPAB2AIoAiwCZAKcA8AASAQwBKwD//wAAAQAAAAEEAAAAAAdHZW5lcmFsAAAAATRQcmV2YWxlbmNlIG9mIGNvbnRhbWluYXRlZCBzZXJ2aW5ncyAvIDEtZXhwKC1kb3NlKnIpAQABARAAAgABClN0YXRpc3RpY3MDAQEA/wEBAQEBAAEBAQAEAAAAAQEBAQEAAQEBAAQAAAABqwACQQA0UHJldmFsZW5jZSBvZiBjb250YW1pbmF0ZWQgc2VydmluZ3MgLyAxLWV4cCgtZG9zZSpyKQAAAP/cFDwBAAACAAIA+AACAQEBAwGamZmZmZmpPwAAZmZmZmZm7j8AAAUAAQEBAAEBAQA=</t>
   </si>
   <si>
-    <t>GF1_rK0qDwEAEwAGAQwjACcAPABuAIIAgwCRAJ8A4AACAfwAKwD//wAAAQAAAAEEAAAAAAdHZW5lcmFsAAAAASxQcm9iYWJpbGl0eSBvZiBJbmZlY3Rpb24gZnJvbSBTaW5nbGUgU2VydmluZwEAAQEQAAIAAQpTdGF0aXN0aWNzAwEBAP8BAQEBAQABAQEABAAAAAEBAQEBAAEBAQAEAAAAAaMAAjkALFByb2JhYmlsaXR5IG9mIEluZmVjdGlvbiBmcm9tIFNpbmdsZSBTZXJ2aW5nAAAA/9wUPAEAAAIAAgDoAPIAAQEDAZqZmZmZmak/AABmZmZmZmbuPwAABQABAQEAAQEBAA==</t>
-  </si>
-  <si>
     <t>GF1_4VKXXwEAEwCqAQwjACcANwC6AMgAyQDXAOUAAAAAAKIBKAD//wAAAQEEAAAAAAUwLjAwMAAAAAEsUHJvYmFiaWxpdHkgb2YgSW5mZWN0aW9uIGZyb20gU2luZ2xlIFNlcnZpbmcAKlByb2JhYmlsaXR5IG9mIEluZmVjdGlvbiBwZXIgU2VydmluZyAoUmF3KSZTcGVhcm1hbiBSYW5rIENvcnJlbGF0aW9uIENvZWZmaWNpZW50cwEBCgACAAEETm9uZQMAAQD/AQEBAQEAAQEBAAQAAAABAQEBAQABAQEABAAAAAoEAQg/AQhKAQhVAQhgAQhrAQh2AQiBAQiMAQiXAQg5ACxQcm9iYWJpbGl0eSBvZiBJbmZlY3Rpb24gZnJvbSBTaW5nbGUgU2VydmluZwAAAP/cFDwBAAACAAkAAAABJQEAAAIACQAAAAJPAQAAAgAJAAAAA4wBAAACAAkAAAAETAEAAAIACQAAAAU5AQAAAgAJAAAABk4BAAACAAkAAAAHIwEAAAIACQAAAAgpAQAAAgAJAAAACWABAAACAAUAAQEBAAAA</t>
   </si>
   <si>
@@ -770,6 +767,12 @@
   </si>
   <si>
     <t>(calculated externally using USDA APHIS detections)</t>
+  </si>
+  <si>
+    <t>GF1_rK0qDwEAEwDiAAwjACcAPABcAHAAcQB/AI0AvADeANgAKwD//wAAAQAAAAEEAAAAAAdHZW5lcmFsAAAAARpwX2luZmVjdGlvbl9zZXJ2aW5nX3JldGFpbAEAAQEQAAIAAQpTdGF0aXN0aWNzAwEBAP8BAQEBAQABAQEABAAAAAEBAQEBAAEBAQAEAAAAAZEAAicAGnBfaW5mZWN0aW9uX3NlcnZpbmdfcmV0YWlsAAAA/9wUPAEAAAIAAgDEAM4AAQEDAZqZmZmZmak/AABmZmZmZmbuPwAABQABAQEAAQEBAA==</t>
+  </si>
+  <si>
+    <t>GF1_rK0qDwEAEwDoAAwjACcAPABfAHMAdACCAJAAwgDkAN4AKwD//wAAAQAAAAEEAAAAAAdHZW5lcmFsAAAAAR1wX2luZmVjdGlvbl9zZXJ2aW5nX2Zhcm1zdG9yZQEAAQEQAAIAAQpTdGF0aXN0aWNzAwEBAP8BAQEBAQABAQEABAAAAAEBAQEBAAEBAQAEAAAAAZQAAioAHXBfaW5mZWN0aW9uX3NlcnZpbmdfZmFybXN0b3JlAAAA/9wUPAEAAAIAAgDKANQAAQEDAZqZmZmZmak/AABmZmZmZmbuPwAABQABAQEAAQEBAA==</t>
   </si>
 </sst>
 </file>
@@ -1166,8 +1169,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA817C8-2130-4BDB-A154-FA44F7C38E49}">
-  <dimension ref="A1:X13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C50E55-E68E-4B31-924A-F86757724865}">
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1255,190 +1258,215 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="e">
+        <f ca="1">ModelRef(model!$D$87,1,0,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>217</v>
+      </c>
+      <c r="L6" t="e">
+        <f ca="1">ModelRef(model!$D$87,1,0,0)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" t="e">
         <f ca="1">ModelRef(model!$D$99,2,0,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="J6" t="b">
+      <c r="J7" t="b">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
-        <v>148</v>
-      </c>
-      <c r="L6" t="e">
+      <c r="K7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" t="e">
         <f ca="1">ModelRef(model!$D$99,2,0,0)+ModelRef(model!$D$99,3,0,-1)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" t="e">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" t="e">
         <f ca="1">ModelRef(model!$D$131,1,0,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="J7" t="b">
+      <c r="J8" t="b">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K8" t="s">
         <v>104</v>
       </c>
-      <c r="L7" t="e">
+      <c r="L8" t="e">
         <f ca="1">ModelRef(model!$D$131,1,0,0)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" t="e">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" t="e">
         <f ca="1">ModelRef(model!$D$133,1,0,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="J8" t="b">
+      <c r="J9" t="b">
         <v>1</v>
       </c>
-      <c r="K8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L8" t="e">
+      <c r="K9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L9" t="e">
         <f ca="1">ModelRef(model!$D$133,1,0,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N9" t="s">
         <v>22</v>
       </c>
-      <c r="O8" t="s">
-        <v>106</v>
-      </c>
-      <c r="P8" t="e">
+      <c r="O9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9" t="e">
         <f ca="1">ModelRef(model!$D$133,1,0,0)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" t="e">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" t="e">
         <f ca="1">ModelRef(model!$D$39,1,0,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="J9" t="b">
+      <c r="J10" t="b">
         <v>1</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K10" t="s">
         <v>103</v>
       </c>
-      <c r="L9" t="e">
+      <c r="L10" t="e">
         <f ca="1">ModelRef(model!$D$39,1,0,0)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" t="e">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" t="e">
         <f ca="1">ModelRef(model!$D$34,1,0,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>0</v>
       </c>
-      <c r="J10" t="b">
+      <c r="J11" t="b">
         <v>1</v>
       </c>
-      <c r="K10" t="s">
-        <v>131</v>
-      </c>
-      <c r="L10" t="e">
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="e">
         <f ca="1">ModelRef(model!$D$34,1,0,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N11" t="s">
         <v>22</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O11" t="s">
         <v>23</v>
       </c>
-      <c r="P10" t="e">
+      <c r="P11" t="e">
         <f ca="1">ModelRef(model!$D$34,1,0,0)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" t="s">
         <v>142</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D13" t="s">
         <v>143</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E13" t="s">
         <v>144</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f ca="1">model!$D$99</f>
+        <v>1.6567912407967875</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <f ca="1">model!$D$99</f>
-        <v>1.4726599739544552</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
         <v>146</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I13">
+      <c r="H14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14">
         <v>0</v>
       </c>
     </row>
@@ -1451,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1468,12 +1496,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1487,7 +1515,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
@@ -1507,10 +1535,10 @@
         <v>29</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INT(_xll.RiskTriang(2,20,50,_xll.RiskName("avg_herd_size"),_xll.RiskCollect()))</f>
@@ -1520,25 +1548,25 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="1" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">_xll.RiskUniform(0.0342,0.2349,_xll.RiskName("prevalence"),_xll.RiskStatic(0.135),_xll.RiskCollect())</f>
-        <v>0.17185983926655737</v>
+        <v>0.22203706159853964</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1548,7 +1576,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <f ca="1">INT(D6*(1-D7))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>30</v>
@@ -1561,7 +1589,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1">
         <f ca="1">D6-D8</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>30</v>
@@ -1586,7 +1614,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1">
         <f ca="1">INT(D9*D121)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>30</v>
@@ -1594,38 +1622,38 @@
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="1" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">_xll.RiskPert(8,9,10,_xll.RiskName("healthy_milk_yield"),_xll.RiskStatic(9),_xll.RiskCollect())</f>
-        <v>9.1817045860859423</v>
+        <v>8.5641310248895852</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="D13" s="1" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">_xll.RiskPert(0.5,0.6,1,_xll.RiskName("infected_cow_rel_yield"),_xll.RiskStatic(0.6),_xll.RiskCollect())</f>
-        <v>0.53733891100100883</v>
+        <v>0.63045424522790983</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1635,7 +1663,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <f ca="1">D13*D12</f>
-        <v>4.9336871434203884</v>
+        <v>5.399292761329689</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>37</v>
@@ -1648,7 +1676,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f ca="1">(D9-D11)*D14</f>
-        <v>14.801061430261164</v>
+        <v>16.197878283989066</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>37</v>
@@ -1661,7 +1689,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f ca="1">D8*D12</f>
-        <v>110.18045503303131</v>
+        <v>94.205441273785439</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>37</v>
@@ -1674,7 +1702,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <f ca="1">D11*D14</f>
-        <v>0</v>
+        <v>5.399292761329689</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>37</v>
@@ -1699,7 +1727,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1">
         <f ca="1">D16+D15</f>
-        <v>124.98151646329248</v>
+        <v>110.40331955777451</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>37</v>
@@ -1712,7 +1740,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1">
         <f ca="1">D17+D18</f>
-        <v>0</v>
+        <v>5.399292761329689</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>37</v>
@@ -1763,7 +1791,7 @@
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
@@ -1773,12 +1801,12 @@
         <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
@@ -1788,7 +1816,7 @@
         <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1805,7 +1833,7 @@
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
@@ -1815,7 +1843,7 @@
         <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1837,20 +1865,20 @@
         <v>55</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="D31" s="1" cm="1">
         <f t="array" aca="1" ref="D31" ca="1">_xll.RiskPert(4,6.5,8.8,_xll.RiskName("milk_titer"),_xll.RiskStatic(6.5),_xll.RiskCollect())</f>
-        <v>6.6371971320323988</v>
+        <v>4.9266469787247065</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1860,7 +1888,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1">
         <f ca="1">10^D31</f>
-        <v>4337076.9939834252</v>
+        <v>84459.202968907077</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>58</v>
@@ -1873,7 +1901,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1">
         <f ca="1">D32*D22*D15</f>
-        <v>242998122585.14084</v>
+        <v>5178667586.8916836</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>60</v>
@@ -1886,7 +1914,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <f ca="1">LOG10(D33)</f>
-        <v>11.385602918231797</v>
+        <v>9.7142180350163727</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>53</v>
@@ -1899,7 +1927,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1">
         <f ca="1">D22*D19</f>
-        <v>473106.28223531198</v>
+        <v>417921.8298871952</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>47</v>
@@ -1912,7 +1940,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1">
         <f ca="1">ROUNDDOWN(D35/D22,0)</f>
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>37</v>
@@ -1925,7 +1953,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1">
         <f ca="1">1/D36</f>
-        <v>8.0645161290322578E-3</v>
+        <v>9.0909090909090905E-3</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>65</v>
@@ -1938,7 +1966,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1">
         <f ca="1">MAX(D33/D35,1)</f>
-        <v>513622.6926369142</v>
+        <v>12391.474234043962</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>58</v>
@@ -1950,7 +1978,7 @@
       </c>
       <c r="D39" s="1">
         <f ca="1">LOG10(D38)</f>
-        <v>5.7106442032797951</v>
+        <v>4.0931229781777514</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>56</v>
@@ -1963,7 +1991,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1">
         <f ca="1">1/(D35*10)</f>
-        <v>2.1136899625920066E-7</v>
+        <v>2.392791973249922E-7</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>65</v>
@@ -1975,8 +2003,8 @@
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1">
-        <f>INT(36*10)</f>
-        <v>360</v>
+        <f ca="1">INT(D35*100)</f>
+        <v>41792182</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>70</v>
@@ -1989,7 +2017,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1">
         <f ca="1">EXP((GAMMALN(D49*D41)+GAMMALN(D33)-GAMMALN((D49*D41)+D33))-(GAMMALN(D49*(D41-1))+GAMMALN(D33)-GAMMALN((D49*(D41-1))+D33)))</f>
-        <v>1.4788053811649369E-9</v>
+        <v>8.005417982248712E-3</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>65</v>
@@ -2002,7 +2030,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1">
         <f ca="1">(IFERROR(1+_xll.RiskBinomial(D33,D40,_xll.RiskName("Quantity of Virus in an Aliquot")),1+_xll.RiskPoisson(D33*D40)))</f>
-        <v>51200</v>
+        <v>1171</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>60</v>
@@ -2028,7 +2056,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1">
         <f ca="1">MAX(D34-D106,0)</f>
-        <v>11.244971818089256</v>
+        <v>9.5308742662399553</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>53</v>
@@ -2041,7 +2069,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1">
         <f ca="1">INT(10^D45)</f>
-        <v>175780954380</v>
+        <v>3395269609</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>60</v>
@@ -2054,7 +2082,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1">
         <f ca="1">(IFERROR(1+_xll.RiskBinomial(D46,D37,_xll.RiskName("Quantity of Virus in Gallon")),1+_xll.RiskPoisson(D46*D37)))</f>
-        <v>1417541099</v>
+        <v>30869624</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>60</v>
@@ -2067,7 +2095,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1">
         <f ca="1">LOG10(D47)</f>
-        <v>9.1515356593181423</v>
+        <v>7.4895313396952581</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>53</v>
@@ -2085,7 +2113,7 @@
         <v>65</v>
       </c>
       <c r="F49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2095,7 +2123,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1">
         <f ca="1">EXP((GAMMALN(D49*D36)+GAMMALN(D46)-GAMMALN((D49*D36)+D46))-(GAMMALN(D49*(D36-1))+GAMMALN(D46)-GAMMALN((D49*(D36-1))+D46)))</f>
-        <v>6.9990386572149028E-10</v>
+        <v>3.2103429371437282E-8</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>65</v>
@@ -2109,70 +2137,70 @@
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B52" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="D52" s="1" cm="1">
         <f t="array" aca="1" ref="D52" ca="1">_xll.RiskUniform(0.167,0.5,_xll.RiskName("duration_lag_retail"),_xll.RiskCollect())</f>
-        <v>0.32988347665296092</v>
+        <v>0.49221934857846439</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B53" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="D53" s="1" cm="1">
         <f t="array" aca="1" ref="D53" ca="1">_xll.RiskUniform(2.2,4.4,_xll.RiskName("temp_lag_retail"),_xll.RiskCollect())</f>
-        <v>2.2336709828074137</v>
+        <v>2.8787500481363182</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1">
         <f ca="1">0.0596*EXP(0.0993*D53)</f>
-        <v>7.4400235165754197E-2</v>
+        <v>7.9321994938922308E-2</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1">
         <f ca="1">MAX(D48-(D52*D54),0)</f>
-        <v>9.1269922510778656</v>
+        <v>7.4504875190184778</v>
       </c>
       <c r="E55" t="s">
         <v>53</v>
@@ -2180,64 +2208,64 @@
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="1" cm="1">
         <f t="array" aca="1" ref="D56" ca="1">_xll.RiskTriang(0.0716,0.0889,0.247,_xll.RiskName("duration_transport_retail"),_xll.RiskCollect())</f>
-        <v>0.10879423935561146</v>
+        <v>0.137747155956227</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="1" cm="1">
         <f t="array" aca="1" ref="D57" ca="1">_xll.RiskTriang(3.6,6.5,10.9,_xll.RiskName("temp_transport_retail"),_xll.RiskCollect())</f>
-        <v>7.1929376941984788</v>
+        <v>7.3276361231474318</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1">
         <f ca="1">0.0596*EXP(0.0993*D57)</f>
-        <v>0.12174324612343795</v>
+        <v>0.12338256846747241</v>
       </c>
       <c r="E58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1">
         <f ca="1">MAX(D55-(D56*D58),0)</f>
-        <v>9.1137472872191836</v>
+        <v>7.4334919211175094</v>
       </c>
       <c r="E59" t="s">
         <v>53</v>
@@ -2245,64 +2273,64 @@
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D60" s="1" cm="1">
         <f t="array" aca="1" ref="D60" ca="1">_xll.RiskUniform(1,7,_xll.RiskName("duration_storage_retail"),_xll.RiskCollect())</f>
-        <v>4.5773889517639637</v>
+        <v>1.8134393790207319</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D61" s="1" cm="1">
         <f t="array" aca="1" ref="D61" ca="1">_xll.RiskTriang(-6.1787,4.4444,14.473,_xll.RiskTruncate(0,),_xll.RiskName("temp_storage_retail"),_xll.RiskCollect())</f>
-        <v>4.1123850892657172</v>
+        <v>6.1615478871041391</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1">
         <f ca="1">0.0596*EXP(0.0993*D61)</f>
-        <v>8.9659163898226368E-2</v>
+        <v>0.1098919136193538</v>
       </c>
       <c r="E62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1">
         <f ca="1">MAX(D59-(D60*D62),0)</f>
-        <v>8.7033424209670471</v>
+        <v>7.2342095975242282</v>
       </c>
       <c r="E63" t="s">
         <v>53</v>
@@ -2310,64 +2338,64 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65">
         <f ca="1">(D61+D109)/2</f>
-        <v>6.3791815195891672</v>
+        <v>8.3985009337395411</v>
       </c>
       <c r="E65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1">
         <f ca="1">0.0596*EXP(0.0993*D65)</f>
-        <v>0.11229263754139732</v>
+        <v>0.13722565900484163</v>
       </c>
       <c r="E67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1">
         <f ca="1">MAX(D63-(D111*D67),0)</f>
-        <v>8.7002559418944543</v>
+        <v>7.2136356937576362</v>
       </c>
       <c r="E68" t="s">
         <v>53</v>
@@ -2375,48 +2403,48 @@
     </row>
     <row r="69" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1">
         <f ca="1">0.0596*EXP(0.0993*D114)</f>
-        <v>6.7159953110305579E-2</v>
+        <v>0.21424478637283359</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1">
         <f ca="1">MAX(D68-(D113*D71),0)</f>
-        <v>8.5331521750088228</v>
+        <v>6.1962606447633659</v>
       </c>
       <c r="E72" t="s">
         <v>53</v>
@@ -2424,12 +2452,12 @@
     </row>
     <row r="73" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1">
         <f ca="1">10^D72</f>
-        <v>341312485.16942269</v>
+        <v>1571305.5510349306</v>
       </c>
       <c r="E73" t="s">
         <v>60</v>
@@ -2437,7 +2465,7 @@
     </row>
     <row r="74" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1">
@@ -2450,12 +2478,12 @@
     </row>
     <row r="75" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1">
         <f ca="1">(IFERROR(_xll.RiskBinomial(D73,D74,_xll.RiskName("Quantity of Virus in Serving"))+1,_xll.RiskPoisson(D73*D74)+1))</f>
-        <v>21333134</v>
+        <v>97775</v>
       </c>
       <c r="E75" t="s">
         <v>60</v>
@@ -2468,7 +2496,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1">
         <f ca="1">EXP((GAMMALN(D49*D24)+GAMMALN(D73)-GAMMALN((D49*D24)+D73))-(GAMMALN(D49*(D24-1))+GAMMALN(D73)-GAMMALN((D49*(D24-1))+D73)))</f>
-        <v>4.3947988587163531E-8</v>
+        <v>9.5461107737664801E-6</v>
       </c>
       <c r="E76" t="s">
         <v>65</v>
@@ -2487,7 +2515,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1">
         <f ca="1">1-EXP(-D75*D105)</f>
-        <v>0.19211159288072233</v>
+        <v>9.7727215821807878E-4</v>
       </c>
       <c r="E78" t="s">
         <v>65</v>
@@ -2499,8 +2527,8 @@
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1">
-        <f>IF(D122=1,1-D42,1)</f>
-        <v>1</v>
+        <f ca="1">IF(D122=1,1-D42,1)</f>
+        <v>0.99199458201775126</v>
       </c>
       <c r="E79" t="s">
         <v>65</v>
@@ -2508,23 +2536,23 @@
     </row>
     <row r="80" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D80" s="1" cm="1">
         <f t="array" aca="1" ref="D80" ca="1">_xll.RiskPert(0.00080321,0.00080321,0.23623,_xll.RiskName("us_prevalence"),_xll.RiskCollect())</f>
-        <v>2.22047002143369E-2</v>
+        <v>8.2837767374246293E-2</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F80" t="s">
+        <v>215</v>
+      </c>
+      <c r="G80" t="s">
         <v>216</v>
-      </c>
-      <c r="G80" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2533,8 +2561,8 @@
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1">
-        <f>IF(D122=1,(D44*(1-D25))+((1-D44)*D26),1)</f>
-        <v>1</v>
+        <f ca="1">IF(D122=1,(D44*(1-D25))+((1-D44)*D26),1)</f>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="E81" t="s">
         <v>65</v>
@@ -2547,7 +2575,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1">
         <f ca="1">IF(D50&gt;1,1,1-D50)</f>
-        <v>0.99999999930009609</v>
+        <v>0.99999996789657064</v>
       </c>
       <c r="E82" t="s">
         <v>65</v>
@@ -2560,7 +2588,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1">
         <f ca="1">1-D76</f>
-        <v>0.99999995605201142</v>
+        <v>0.99999045388922625</v>
       </c>
       <c r="E83" t="s">
         <v>65</v>
@@ -2573,7 +2601,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1">
         <f ca="1">D79*D80*D81*D82</f>
-        <v>2.2204700198795745E-2</v>
+        <v>1.314793820537796E-3</v>
       </c>
       <c r="E84" t="s">
         <v>65</v>
@@ -2584,11 +2612,11 @@
         <v>99</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D85" s="1" cm="1">
         <f t="array" aca="1" ref="D85" ca="1">_xll.RiskOutput("prevalence_virus_serving_retail")+D84*D83</f>
-        <v>2.2204699222943835E-2</v>
+        <v>1.3147812693703406E-3</v>
       </c>
       <c r="E85" t="s">
         <v>65</v>
@@ -2596,14 +2624,14 @@
     </row>
     <row r="86" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D86" s="1" cm="1">
         <f t="array" aca="1" ref="D86" ca="1">_xll.RiskOutput("quant_virus_serving_log_retail")+LOG10(D75)</f>
-        <v>7.3290546613062011</v>
+        <v>4.990227824624168</v>
       </c>
       <c r="E86" t="s">
         <v>53</v>
@@ -2614,11 +2642,11 @@
         <v>100</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D87" s="1" cm="1">
         <f t="array" aca="1" ref="D87" ca="1">_xll.RiskOutput("p_infection_serving_retail")+D78*D85*(1-D91)*(1-D92)*(1-D93)*(1-D94)*(1-D95)</f>
-        <v>4.0607271280867167E-3</v>
+        <v>1.9971630355430702E-7</v>
       </c>
       <c r="E87" t="s">
         <v>65</v>
@@ -2630,108 +2658,108 @@
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1">
         <f ca="1">(EXP(D134+(D136*D52*24)+(D53*D135)))/(1+(EXP(D134+(D136*D52*24)+(D53*D135))))</f>
-        <v>1.7195265895176032E-5</v>
+        <v>3.1100139650432308E-5</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F91" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1">
         <f ca="1">(EXP(D134+(D136*D56*24)+(D57*D135)))/(1+(EXP(D134+(D136*D56*24)+(D57*D135))))</f>
-        <v>1.4391065480399143E-4</v>
+        <v>1.6153661948830808E-4</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F92" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1">
         <f ca="1">(EXP(D134+(D136*D60*24)+(D61*D135)))/(1+(EXP(D134+(D136*D60*24)+(D61*D135))))</f>
-        <v>4.7489297613209358E-2</v>
+        <v>1.4376723835102445E-3</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F93" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1">
         <f ca="1">(EXP(D134+(D136*D111*24)+(D65*D135)))/(1+(EXP(D134+(D136*D111*24)+(D65*D135))))</f>
-        <v>8.3599354657355279E-5</v>
+        <v>2.8218293792689838E-4</v>
       </c>
       <c r="E94" t="s">
         <v>65</v>
       </c>
       <c r="F94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1">
         <f ca="1">(EXP(D134+(D136*D113*24)+(D114*D135)))/(1+(EXP(D134+(D136*D113*24)+(D114*D135))))</f>
-        <v>3.6430555639328175E-4</v>
+        <v>0.844268831633052</v>
       </c>
       <c r="E95" t="s">
         <v>65</v>
       </c>
       <c r="F95" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2748,7 +2776,7 @@
     </row>
     <row r="98" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2757,51 +2785,51 @@
     </row>
     <row r="99" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D99" s="1" cm="1">
         <f t="array" aca="1" ref="D99" ca="1">_xll.RiskUniform(1,7,_xll.RiskName("duration_storage_farmstore"),_xll.RiskCollect())</f>
-        <v>1.4726599739544552</v>
+        <v>1.6567912407967875</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F99" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="D100" s="1" cm="1">
         <f t="array" aca="1" ref="D100" ca="1">_xll.RiskTriang(-6.1787,4.4444,14.473,_xll.RiskTruncate(0,),_xll.RiskCollect(),_xll.RiskName("temp_storage_farmstore"))</f>
-        <v>8.645363310553293</v>
+        <v>11.316287356151296</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F100" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1">
         <f ca="1">MAX(D48-(D99*D106),0)</f>
-        <v>8.9444338670450438</v>
+        <v>7.1857689895318195</v>
       </c>
       <c r="E101" t="s">
         <v>53</v>
@@ -2824,125 +2852,125 @@
     </row>
     <row r="105" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>124</v>
       </c>
       <c r="D105" s="14">
         <v>1E-8</v>
       </c>
       <c r="F105" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1">
         <f ca="1">0.0596*EXP(0.0993*D100)</f>
-        <v>0.14063110014253979</v>
+        <v>0.18334376877641673</v>
       </c>
       <c r="E106" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1">
         <f ca="1">0.0596*EXP(0.0993*D110)</f>
-        <v>0.14063539182539514</v>
+        <v>0.17724971037685533</v>
       </c>
       <c r="E107" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1">
         <f ca="1">0.0596*EXP(0.0993*D114)</f>
-        <v>6.7159953110305579E-2</v>
+        <v>0.21424478637283359</v>
       </c>
       <c r="E108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D109" s="1" cm="1">
         <f t="array" aca="1" ref="D109" ca="1">_xll.RiskTriang(-3.3804,8.8889,21.156,_xll.RiskTruncate(0,),_xll.RiskCollect(),_xll.RiskName("temp_home_arrival"))</f>
-        <v>8.6459779499126164</v>
+        <v>10.635453980374942</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F109" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D110" s="1">
         <f ca="1">(D100+D109)/2</f>
-        <v>8.6456706302329547</v>
+        <v>10.97587066826312</v>
       </c>
       <c r="E110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F110" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D111" s="1" cm="1">
         <f t="array" aca="1" ref="D111" ca="1">_xll.RiskTriang(0.012,0.0271,0.1731,_xll.RiskName("duration_transport_residence"),_xll.RiskCollect())</f>
-        <v>2.7486032389751388E-2</v>
+        <v>0.14992752751776417</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F111" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1">
         <f ca="1">MAX(D101-(D111*D107),0)</f>
-        <v>8.9405683581101858</v>
+        <v>7.1591943787017778</v>
       </c>
       <c r="E112" t="s">
         <v>53</v>
@@ -2950,38 +2978,38 @@
     </row>
     <row r="113" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C113" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="D113" s="1" cm="1">
         <f t="array" aca="1" ref="D113" ca="1">_xll.RiskPert(0.5, 2.5, 8.5,_xll.RiskCollect(),_xll.RiskName("duration_storage_residence"))</f>
-        <v>2.4881459731095141</v>
+        <v>4.7486572075728901</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F113" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D114" s="1" cm="1">
         <f t="array" aca="1" ref="D114" ca="1">_xll.RiskTriang(-5.0221,2.7778,17.238,_xll.RiskTruncate(0,),_xll.RiskName("temp_storage_residence"),_xll.RiskCollect())</f>
-        <v>1.2026340378539757</v>
+        <v>12.884830300047044</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F114" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3004,7 +3032,7 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1">
         <f ca="1">MAX(D112-(D113*D108),0)</f>
-        <v>8.7734645912245544</v>
+        <v>6.1418193297075074</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>53</v>
@@ -3017,7 +3045,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1">
         <f ca="1">10^D116</f>
-        <v>593559952.2555542</v>
+        <v>1386179.0463330641</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>60</v>
@@ -3030,7 +3058,7 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1">
         <f ca="1">(IFERROR(_xll.RiskBinomial(D117,D115,_xll.RiskName("Quantity of Virus in Serving"))+1,_xll.RiskPoisson(D117*D115)+1))</f>
-        <v>37088778</v>
+        <v>86037</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>60</v>
@@ -3043,7 +3071,7 @@
       <c r="C119" s="1"/>
       <c r="D119" s="1">
         <f ca="1">EXP((GAMMALN(D49*D24)+GAMMALN(D117)-GAMMALN((D49*D24)+D117))-(GAMMALN(D49*(D24-1))+GAMMALN(D117)-GAMMALN((D49*(D24-1))+D117)))</f>
-        <v>2.5271285894307322E-8</v>
+        <v>1.0820995843202185E-5</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>65</v>
@@ -3065,7 +3093,7 @@
         <v>89</v>
       </c>
       <c r="F121" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3074,7 +3102,7 @@
       </c>
       <c r="C122" s="13"/>
       <c r="D122" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>91</v>
@@ -3090,7 +3118,7 @@
       </c>
       <c r="D124" s="1">
         <f ca="1">1-EXP(-D118*D105)</f>
-        <v>0.3098786173649517</v>
+        <v>8.5999998785490916E-4</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3098,8 +3126,8 @@
         <v>94</v>
       </c>
       <c r="D125" s="1">
-        <f>IF(D122=1,1-D42,1)</f>
-        <v>1</v>
+        <f ca="1">IF(D122=1,1-D42,1)</f>
+        <v>0.99199458201775126</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>65</v>
@@ -3107,11 +3135,11 @@
     </row>
     <row r="126" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D126" s="1">
         <f ca="1">D80</f>
-        <v>2.22047002143369E-2</v>
+        <v>8.2837767374246293E-2</v>
       </c>
       <c r="E126" t="s">
         <v>65</v>
@@ -3122,8 +3150,8 @@
         <v>95</v>
       </c>
       <c r="D127" s="1">
-        <f>IF(D122=1,(D44*(1-D25))+((1-D44)*D26),1)</f>
-        <v>1</v>
+        <f ca="1">IF(D122=1,(D44*(1-D25))+((1-D44)*D26),1)</f>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>65</v>
@@ -3135,7 +3163,7 @@
       </c>
       <c r="D128" s="1">
         <f ca="1">IF(D50&gt;1,1,1-D50)</f>
-        <v>0.99999999930009609</v>
+        <v>0.99999996789657064</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>65</v>
@@ -3147,7 +3175,7 @@
       </c>
       <c r="D129" s="1">
         <f ca="1">1-D119</f>
-        <v>0.99999997472871416</v>
+        <v>0.99998917900415685</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>65</v>
@@ -3159,7 +3187,7 @@
       </c>
       <c r="D130" s="1">
         <f ca="1">D125*D127*D128*D126</f>
-        <v>2.2204700198795745E-2</v>
+        <v>1.3147938205377958E-3</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>65</v>
@@ -3170,11 +3198,11 @@
         <v>99</v>
       </c>
       <c r="C131" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D131" s="1" cm="1">
         <f t="array" aca="1" ref="D131" ca="1">_xll.RiskOutput("prevalence_virus_serving_farmstore")+D130*D129</f>
-        <v>2.220469963765442E-2</v>
+        <v>1.3147795931593292E-3</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>65</v>
@@ -3182,14 +3210,14 @@
     </row>
     <row r="132" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C132" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D132" s="1" cm="1">
         <f t="array" aca="1" ref="D132" ca="1">_xll.RiskOutput("quant_virus_serving_log_farmstore")+LOG10(D118)</f>
-        <v>7.5692425244421271</v>
+        <v>4.934685258687062</v>
       </c>
       <c r="E132" t="s">
         <v>53</v>
@@ -3200,11 +3228,11 @@
         <v>100</v>
       </c>
       <c r="C133" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D133" s="1" cm="1">
         <f t="array" aca="1" ref="D133" ca="1">_xll.RiskOutput("p_infection_serving_farmstore")+D131*D124*(1-D137)*(1-D139)*(1-D138)</f>
-        <v>6.8569066481551375E-3</v>
+        <v>1.7334196418554785E-7</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>65</v>
@@ -3222,13 +3250,13 @@
         <v>65</v>
       </c>
       <c r="F134" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G134" s="8"/>
     </row>
     <row r="135" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="2">
@@ -3238,12 +3266,12 @@
         <v>65</v>
       </c>
       <c r="F135" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="136" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="2">
@@ -3253,39 +3281,39 @@
         <v>65</v>
       </c>
       <c r="F136" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="137" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="2">
         <f ca="1">(EXP(D134+(D136*D99*24)+(D100*D135)))/(1+(EXP(D134+(D136*D99*24)+(D100*D135))))</f>
-        <v>2.8435885237263676E-3</v>
+        <v>1.4574467782865693E-2</v>
       </c>
       <c r="E137" t="s">
         <v>65</v>
       </c>
       <c r="F137" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="138" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="2">
         <f ca="1">(EXP(D134+(D136*D111*24)+(D110*D135)))/(1+(EXP(D134+(D136*D111*24)+(D110*D135))))</f>
-        <v>2.6088750871420998E-4</v>
+        <v>1.0288156187493044E-3</v>
       </c>
       <c r="E138" t="s">
         <v>65</v>
       </c>
       <c r="F138" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="139" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3295,13 +3323,13 @@
       <c r="C139" s="3"/>
       <c r="D139" s="4">
         <f ca="1">(EXP(D134+(D136*D113*24)+(D114*D135)))/(1+(EXP(D134+(D136*D113*24)+(D114*D135))))</f>
-        <v>3.6430555639328175E-4</v>
+        <v>0.844268831633052</v>
       </c>
       <c r="E139" t="s">
         <v>65</v>
       </c>
       <c r="F139" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="140" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
